--- a/outputs-r202/test-g__UBA6382.xlsx
+++ b/outputs-r202/test-g__UBA6382.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,14 +92,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,190 +131,190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21707656913000689</v>
+        <v>1.4153977221250647e-13</v>
       </c>
       <c r="C2">
-        <v>0.00072700728548910783</v>
+        <v>0.1358806248378841</v>
       </c>
       <c r="D2">
-        <v>0.2825599272269172</v>
+        <v>0.30810736449845494</v>
       </c>
       <c r="E2">
-        <v>2.8276695862012315e-13</v>
+        <v>1.1979833495308467e-08</v>
       </c>
       <c r="F2">
-        <v>9.49663285999887e-14</v>
+        <v>1.4153977221250649e-13</v>
       </c>
       <c r="G2">
-        <v>0.28255992722691714</v>
+        <v>0.30810736449845505</v>
       </c>
       <c r="H2">
-        <v>0.21707656913000684</v>
+        <v>0.24790463418466493</v>
       </c>
       <c r="I2">
-        <v>9.4966328599988687e-14</v>
+        <v>1.4153977221250654e-13</v>
       </c>
       <c r="J2">
-        <v>9.4966328599988687e-14</v>
+        <v>1.4153977221250659e-13</v>
       </c>
       <c r="K2">
-        <v>9.4966328599988776e-14</v>
+        <v>1.4153977221250664e-13</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="C3">
-        <v>2.4246235371374763e-05</v>
+        <v>6.6451543175415655e-06</v>
       </c>
       <c r="D3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="F3">
-        <v>0.99997575376445103</v>
+        <v>0.99999335484550489</v>
       </c>
       <c r="G3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="K3">
-        <v>2.2204406658862969e-14</v>
+        <v>2.2204445737582492e-14</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="C4">
-        <v>0.00082006787907753956</v>
+        <v>0.00014676149666879482</v>
       </c>
       <c r="D4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="E4">
-        <v>1.1441047153625424e-06</v>
+        <v>1.2605320121560681e-05</v>
       </c>
       <c r="F4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="G4">
-        <v>0.99917878801605164</v>
+        <v>0.99984063318305427</v>
       </c>
       <c r="H4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="I4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="J4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="K4">
-        <v>2.2202641415601375e-14</v>
+        <v>2.2204106792040468e-14</v>
       </c>
       <c r="L4">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.29945647593909891</v>
+        <v>0.30399816857567119</v>
       </c>
       <c r="C5">
-        <v>0.060065054087194869</v>
+        <v>0.048861533446923955</v>
       </c>
       <c r="D5">
-        <v>0.34101913533307887</v>
+        <v>0.34314091888527443</v>
       </c>
       <c r="E5">
-        <v>2.8586978610550271e-06</v>
+        <v>1.2105073633787553e-06</v>
       </c>
       <c r="F5">
-        <v>7.3352443101615338e-13</v>
+        <v>1.8193832553279642e-12</v>
       </c>
       <c r="G5">
-        <v>7.3352443101615358e-13</v>
+        <v>1.819383255327965e-12</v>
       </c>
       <c r="H5">
-        <v>0.29945647593909897</v>
+        <v>0.3039981685756703</v>
       </c>
       <c r="I5">
-        <v>7.3352443101615378e-13</v>
+        <v>1.8193832553279646e-12</v>
       </c>
       <c r="J5">
-        <v>7.3352443101615378e-13</v>
+        <v>1.819383255327965e-12</v>
       </c>
       <c r="K5">
-        <v>7.3352443101615307e-13</v>
+        <v>1.8193832553279646e-12</v>
       </c>
       <c r="L5">
         <v>3</v>
